--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A0DE6-71D7-4A32-AD5C-96356D173542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC6811_ESP32" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="490">
   <si>
     <t>LTC6811_ESP32_BOM</t>
   </si>
@@ -835,9 +841,6 @@
     <t>ERJ-PB6B1001V</t>
   </si>
   <si>
-    <t>R16-R18, R24-R27, R32</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
@@ -1150,18 +1153,6 @@
     <t>0R</t>
   </si>
   <si>
-    <t>https://www.koaspeer.com/pdfs/RK73Z.pdf</t>
-  </si>
-  <si>
-    <t>0 Ohms Jumper Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Moisture Resistant Metal Element</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/koa-speer-electronics-inc/RK73Z2ATTD/10235990</t>
-  </si>
-  <si>
-    <t>RK73Z2ATTD</t>
-  </si>
-  <si>
     <t>TH1</t>
   </si>
   <si>
@@ -1463,19 +1454,55 @@
   </si>
   <si>
     <t>LTC6811HG-1#3ZZPBF</t>
+  </si>
+  <si>
+    <t>R16，R18, R24-R27, R32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 kOhms ±5% 0.75W, 3/4W Chip Resistor 2010 (5025 Metric) Moisture Resistant Thick Film</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC2010JK-071KL/5921660</t>
+  </si>
+  <si>
+    <t>RC2010JK-071KL</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric</t>
+  </si>
+  <si>
+    <t>CRM2010-J/-000ELF</t>
+  </si>
+  <si>
+    <t>https://www.bourns.com/docs/Product-Datasheets/CRM0805_1206_2010.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 Ohms Jumper Chip Resistor 2010 (5025 Metric) Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/bourns-inc/CRM2010-J-000ELF/16356436?s=N4IgTCBcDaIAwCUAEY4EY4gLoF8g</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2010_5025Metric</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,7 +1523,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,337 +1534,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1845,255 +1573,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,110 +1590,189 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2215,7 +1783,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2243,154 +1811,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2648,75 +2102,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="24.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2726,26 +2180,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:9">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
@@ -2755,26 +2209,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:9">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H5" t="s">
@@ -2784,26 +2238,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:9">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H6" t="s">
@@ -2813,26 +2267,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="1:9">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
@@ -2842,26 +2296,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:9">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H8" t="s">
@@ -2871,26 +2325,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="67.5" spans="1:9">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
@@ -2900,26 +2354,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" ht="54" spans="1:9">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H10" t="s">
@@ -2929,26 +2383,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="67.5" spans="1:9">
-      <c r="A11" s="2">
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H11" t="s">
@@ -2958,26 +2412,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="67.5" spans="1:9">
-      <c r="A12" s="2">
+    <row r="12" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
@@ -2987,26 +2441,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="40.5" spans="1:9">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H13" t="s">
@@ -3016,26 +2470,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="54" spans="1:9">
-      <c r="A14" s="2">
+    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H14" t="s">
@@ -3045,26 +2499,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="54" spans="1:9">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H15" t="s">
@@ -3074,26 +2528,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:9">
-      <c r="A16" s="2">
+    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H16" t="s">
@@ -3103,26 +2557,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="40.5" spans="1:9">
-      <c r="A17" s="2">
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H17" t="s">
@@ -3132,26 +2586,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="40.5" spans="1:9">
-      <c r="A18" s="2">
+    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
@@ -3161,26 +2615,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:9">
-      <c r="A19" s="2">
+    <row r="19" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H19" t="s">
@@ -3190,26 +2644,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:9">
-      <c r="A20" s="2">
+    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H20" t="s">
@@ -3219,26 +2673,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="40.5" spans="1:9">
-      <c r="A21" s="2">
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H21" t="s">
@@ -3248,26 +2702,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="54" spans="1:9">
-      <c r="A22" s="2">
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>130</v>
       </c>
       <c r="H22" t="s">
@@ -3277,26 +2731,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="40.5" spans="1:9">
-      <c r="A23" s="2">
+    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>136</v>
       </c>
       <c r="H23" t="s">
@@ -3306,26 +2760,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:9">
-      <c r="A24" s="2">
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H24" t="s">
@@ -3335,26 +2789,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="40.5" spans="1:9">
-      <c r="A25" s="2">
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C25" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>150</v>
       </c>
       <c r="H25" t="s">
@@ -3364,26 +2818,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="1:9">
-      <c r="A26" s="2">
+    <row r="26" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H26" t="s">
@@ -3393,26 +2847,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="67.5" spans="1:9">
-      <c r="A27" s="2">
+    <row r="27" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>163</v>
       </c>
       <c r="H27" t="s">
@@ -3422,26 +2876,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="40.5" spans="1:9">
-      <c r="A28" s="2">
+    <row r="28" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C28" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H28" t="s">
@@ -3451,26 +2905,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:9">
-      <c r="A29" s="2">
+    <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H29" t="s">
@@ -3480,26 +2934,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="67.5" spans="1:9">
-      <c r="A30" s="2">
+    <row r="30" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H30" t="s">
@@ -3509,26 +2963,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="40.5" spans="1:9">
-      <c r="A31" s="2">
+    <row r="31" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C31" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H31" t="s">
@@ -3538,26 +2992,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="40.5" spans="1:9">
-      <c r="A32" s="2">
+    <row r="32" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C32" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H32" t="s">
@@ -3567,37 +3021,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="1:9">
-      <c r="A33" s="2">
+    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>192</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="40.5" spans="1:9">
-      <c r="A34" s="2">
+    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C34" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>166</v>
       </c>
       <c r="H34" t="s">
@@ -3607,20 +3061,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="40.5" spans="1:9">
-      <c r="A35" s="2">
+    <row r="35" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C35" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>192</v>
       </c>
       <c r="H35" t="s">
@@ -3630,26 +3084,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="1:9">
-      <c r="A36" s="2">
+    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C36" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H36" t="s">
@@ -3659,26 +3113,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="40.5" spans="1:9">
-      <c r="A37" s="2">
+    <row r="37" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C37" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="4" t="s">
         <v>210</v>
       </c>
       <c r="H37" t="s">
@@ -3688,43 +3142,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C38" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>214</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="1:9">
-      <c r="A39" s="2">
+    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C39" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H39" t="s">
@@ -3734,26 +3188,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="54" spans="1:9">
-      <c r="A40" s="2">
+    <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C40" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>225</v>
       </c>
       <c r="H40" t="s">
@@ -3763,26 +3217,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="67.5" spans="1:9">
-      <c r="A41" s="2">
+    <row r="41" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C41" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="4" t="s">
         <v>231</v>
       </c>
       <c r="H41" t="s">
@@ -3792,26 +3246,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="1:9">
-      <c r="A42" s="2">
+    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C42" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="4" t="s">
         <v>237</v>
       </c>
       <c r="H42" t="s">
@@ -3821,26 +3275,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" ht="54" spans="1:9">
-      <c r="A43" s="2">
+    <row r="43" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="4" t="s">
         <v>242</v>
       </c>
       <c r="H43" t="s">
@@ -3850,26 +3304,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="1:9">
-      <c r="A44" s="2">
+    <row r="44" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C44" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="4" t="s">
         <v>247</v>
       </c>
       <c r="H44" t="s">
@@ -3879,26 +3333,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="54" spans="1:9">
-      <c r="A45" s="2">
+    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C45" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="4" t="s">
         <v>252</v>
       </c>
       <c r="H45" t="s">
@@ -3908,26 +3362,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="67.5" spans="1:9">
-      <c r="A46" s="2">
+    <row r="46" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="4" t="s">
         <v>259</v>
       </c>
       <c r="H46" t="s">
@@ -3937,26 +3391,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" ht="67.5" spans="1:9">
-      <c r="A47" s="2">
+    <row r="47" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C47" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="4" t="s">
         <v>266</v>
       </c>
       <c r="H47" t="s">
@@ -3966,26 +3420,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="67.5" spans="1:9">
-      <c r="A48" s="2">
+    <row r="48" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C48" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="4" t="s">
         <v>271</v>
       </c>
       <c r="H48" t="s">
@@ -3995,1076 +3449,1105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:9">
-      <c r="A49" s="2">
+    <row r="49" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" t="s">
         <v>273</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H49" t="s">
-        <v>278</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="54" spans="1:9">
-      <c r="A50" s="2">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="E51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="G51" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" t="s">
+        <v>282</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H50" t="s">
-        <v>283</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="54" spans="1:9">
-      <c r="A51" s="2">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="F52" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="G52" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>289</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E53" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53" t="s">
+        <v>292</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H51" t="s">
-        <v>288</v>
-      </c>
-      <c r="I51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" ht="54" spans="1:9">
-      <c r="A52" s="2">
-        <v>49</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="F54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H54" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H52" t="s">
-        <v>293</v>
-      </c>
-      <c r="I52">
+      <c r="E55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H55" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55">
         <v>2</v>
       </c>
     </row>
-    <row r="53" ht="54" spans="1:9">
-      <c r="A53" s="2">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C53" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" s="3" t="s">
+    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H53" t="s">
-        <v>298</v>
-      </c>
-      <c r="I53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" ht="54" spans="1:9">
-      <c r="A54" s="2">
-        <v>51</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H54" t="s">
-        <v>303</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" ht="40.5" spans="1:9">
-      <c r="A55" s="2">
-        <v>52</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E56" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="F56" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H56" t="s">
         <v>308</v>
-      </c>
-      <c r="H55" t="s">
-        <v>309</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="40.5" spans="1:9">
-      <c r="A56" s="2">
-        <v>53</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C56" t="s">
-        <v>311</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H56" t="s">
-        <v>314</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="54" spans="1:9">
-      <c r="A57" s="2">
+    <row r="57" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>315</v>
+      <c r="B57" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>318</v>
+      <c r="E57" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="H57" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:9">
-      <c r="A58" s="2">
+    <row r="58" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>320</v>
+      <c r="B58" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>321</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>323</v>
+      <c r="E58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="H58" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="54" spans="1:9">
-      <c r="A59" s="2">
+    <row r="59" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>325</v>
+      <c r="B59" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>328</v>
+      <c r="E59" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="54" spans="1:9">
-      <c r="A60" s="2">
+    <row r="60" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H60" t="s">
+        <v>328</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" t="s">
         <v>330</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="G61" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" t="s">
+        <v>333</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H60" t="s">
-        <v>334</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="54" spans="1:9">
-      <c r="A61" s="2">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="E62" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H62" t="s">
         <v>338</v>
-      </c>
-      <c r="H61" t="s">
-        <v>339</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" ht="54" spans="1:9">
-      <c r="A62" s="2">
-        <v>59</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H62" t="s">
-        <v>344</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" ht="54" spans="1:9">
-      <c r="A63" s="2">
+    <row r="63" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H63" t="s">
+        <v>343</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" t="s">
         <v>345</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="G64" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H64" t="s">
+        <v>348</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H63" t="s">
-        <v>349</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" ht="54" spans="1:9">
-      <c r="A64" s="2">
-        <v>61</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="G65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H65" t="s">
+        <v>353</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C66" t="s">
+        <v>355</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H64" t="s">
-        <v>354</v>
-      </c>
-      <c r="I64">
+      <c r="F66" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H66" t="s">
+        <v>358</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" t="s">
+        <v>360</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H67" t="s">
+        <v>363</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="1:9">
-      <c r="A65" s="2">
-        <v>62</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C65" t="s">
-        <v>356</v>
-      </c>
-      <c r="D65" s="3" t="s">
+    <row r="68" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E68" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H65" t="s">
-        <v>359</v>
-      </c>
-      <c r="I65">
+      <c r="F68" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H68" t="s">
+        <v>368</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H69" t="s">
+        <v>374</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>67</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H71" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H72" t="s">
+        <v>388</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C74" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H74" t="s">
+        <v>397</v>
+      </c>
+      <c r="I74">
         <v>2</v>
       </c>
     </row>
-    <row r="66" ht="54" spans="1:9">
-      <c r="A66" s="2">
-        <v>63</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="H66" t="s">
-        <v>364</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="54" spans="1:9">
-      <c r="A67" s="2">
-        <v>64</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" t="s">
-        <v>366</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H67" t="s">
-        <v>369</v>
-      </c>
-      <c r="I67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" ht="40.5" spans="1:9">
-      <c r="A68" s="2">
-        <v>65</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C68" t="s">
-        <v>371</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="H68" t="s">
-        <v>375</v>
-      </c>
-      <c r="I68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="40.5" spans="1:9">
-      <c r="A69" s="2">
-        <v>66</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C69" t="s">
-        <v>377</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="H69" t="s">
-        <v>381</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="67.5" spans="1:9">
-      <c r="A70" s="2">
-        <v>67</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C70" t="s">
-        <v>383</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H70" t="s">
-        <v>387</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="40.5" spans="1:9">
-      <c r="A71" s="2">
-        <v>68</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C71" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H71" t="s">
-        <v>393</v>
-      </c>
-      <c r="I71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" ht="54" spans="1:9">
-      <c r="A72" s="2">
-        <v>69</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C72" t="s">
-        <v>395</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="40.5" spans="1:9">
-      <c r="A73" s="2">
-        <v>70</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="75" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="C75" t="s">
         <v>403</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="D75" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="F75" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H73" t="s">
-        <v>402</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" ht="67.5" spans="1:9">
-      <c r="A74" s="2">
-        <v>71</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="G75" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C74" t="s">
+      <c r="H75" t="s">
         <v>408</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H74" t="s">
-        <v>413</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="135" spans="1:9">
-      <c r="A75" s="2">
-        <v>72</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C75" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="H75" t="s">
-        <v>420</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="108" spans="1:9">
-      <c r="A76" s="2">
+    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>421</v>
+      <c r="B76" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>422</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="H76" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="67.5" spans="1:9">
-      <c r="A77" s="2">
+    <row r="77" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>424</v>
+      <c r="B77" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>428</v>
+        <v>417</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="H77" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="135" spans="1:9">
-      <c r="A78" s="2">
+    <row r="78" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>430</v>
+      <c r="B78" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="H78" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="40.5" spans="1:9">
-      <c r="A79" s="2">
+    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>436</v>
+      <c r="B79" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>441</v>
+        <v>426</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="H79" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="135" spans="1:9">
-      <c r="A80" s="2">
+    <row r="80" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>443</v>
+      <c r="B80" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>448</v>
+        <v>432</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="H80" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="54" spans="1:9">
-      <c r="A81" s="2">
+    <row r="81" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>449</v>
+      <c r="B81" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="C81" t="s">
-        <v>450</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>454</v>
+        <v>439</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="H81" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="54" spans="1:9">
-      <c r="A82" s="2">
+    <row r="82" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>456</v>
+      <c r="B82" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>461</v>
+        <v>445</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="H82" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="54" spans="1:9">
-      <c r="A83" s="2">
+    <row r="83" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>463</v>
+      <c r="B83" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="C83" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="H83" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="54" spans="1:9">
-      <c r="A84" s="2">
+    <row r="84" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>470</v>
+      <c r="B84" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="C84" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="H84" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="54" spans="1:9">
-      <c r="A85" s="2">
+    <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" t="s">
+        <v>466</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H85" t="s">
+        <v>466</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C86" t="s">
+        <v>472</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C85" t="s">
+      <c r="H86" t="s">
         <v>477</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="H85" t="s">
-        <v>482</v>
-      </c>
-      <c r="I85">
+      <c r="I86">
         <v>1</v>
       </c>
     </row>
@@ -5072,165 +4555,166 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://www.digikey.jp/en/products/detail/pui-audio-inc/AI-1027-TWT-5V-2-R/5011389?s=N4IgTCBcDaIIIEkC0BGADGA7EgKgdRyQFYA1JMJAJQAIQBdAXyA"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL21A106KAYNNNE/3888549?s=N4IgTCBcDaIMIBkwEYCCyAMA2A0qgmgHLECiIAugL5A"/>
-    <hyperlink ref="G6" r:id="rId3" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA"/>
-    <hyperlink ref="G7" r:id="rId4" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R72A331KA01-01.pdf"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://www.digikey.jp/en/products/detail/kemet/C0603C225K4PAC7867/2200308"/>
-    <hyperlink ref="G9" r:id="rId6" display="https://www.digikey.jp/en/products/detail/kemet/C0603C222K4RECAUTO/8646528"/>
-    <hyperlink ref="G10" r:id="rId7" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C1H221JA16D/1765211"/>
-    <hyperlink ref="G11" r:id="rId8" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL31B225KCHSNNE/3888796?s=N4IgTCBcDaIMIBkDMBGAQmMBWA0nAEgMoByxAoiALoC%2BQA"/>
-    <hyperlink ref="G12" r:id="rId9" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM188R72A103KA37D/1641655?s=N4IgTCBcDaIOIGECyBGAHGgSgdjAQRQAYBmAaT2OwBEQBdAXyA"/>
-    <hyperlink ref="G13" r:id="rId10" display="https://www.digikey.jp/en/products/detail/kyocera-avx/KGM15ACG1H6R8DT/1599948"/>
-    <hyperlink ref="G14" r:id="rId11" display="https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C333J4REC7411"/>
-    <hyperlink ref="G15" r:id="rId12" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/16SVPG47M/5719734"/>
-    <hyperlink ref="G16" r:id="rId13" display="https://www.digikey.jp/en/products/detail/nextgen-components/0603B104K500XD/15761336"/>
-    <hyperlink ref="G17" r:id="rId14" display="https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931"/>
-    <hyperlink ref="G18" r:id="rId15" display="https://www.digikey.jp/en/products/detail/nextgen-components/0603B101K101SD/18668484"/>
-    <hyperlink ref="G19" r:id="rId16" display="https://www.digikey.jp/en/products/detail/liteon/LTST-C190KRKT/386817"/>
-    <hyperlink ref="G20" r:id="rId17" display="https://www.digikey.jp/en/products/detail/micro-commercial-co/MBR0520-TP/717250"/>
-    <hyperlink ref="G21" r:id="rId18" display="https://www.digikey.jp/en/products/detail/bourns-inc/P6SMB22A/5320282"/>
-    <hyperlink ref="G22" r:id="rId19" display="https://www.digikey.jp/en/products/detail/infineon-technologies/ESD24VS2UE6327HTSA1/1785650"/>
-    <hyperlink ref="G23" r:id="rId20" display="https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371"/>
-    <hyperlink ref="G24" r:id="rId21" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/BZT52H-C62-115/1162867"/>
-    <hyperlink ref="G25" r:id="rId22" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708"/>
-    <hyperlink ref="G26" r:id="rId23" display="https://www.digikey.jp/en/products/detail/tdk-corporation/MPZ2012S102ATD25/5040327?s=N4IgTCBcDaILIAUBaYAMBGMBldqwEEAVAETAFYQBdAXyA"/>
-    <hyperlink ref="G27" r:id="rId24" display="https://www.digikey.jp/en/products/detail/murata-electronics/BLM18PG330SN1D/1948325?s=N4IgTCBcDaIEIBkCyBGAHABQOIGYcAYBlAORQBEQBdAXyA"/>
-    <hyperlink ref="G28" r:id="rId25" display="https://www.digikey.jp/en/products/detail/molex/0705430004/114927?s=N4IgTCBcDaIOwAYCsAWAzAWgdlIC6AvkA"/>
-    <hyperlink ref="G29" r:id="rId26" display="https://www.digikey.jp/en/products/detail/samtec-inc/TSW-104-07-G-S/1101323"/>
-    <hyperlink ref="G30" r:id="rId27" display="https://www.digikey.jp/en/products/detail/te-connectivity-amp-connectors/2013499-1/4021843?s=N4IgTCBcDa4AwEYDMAWAnGgtAkBdAvkA"/>
-    <hyperlink ref="G31" r:id="rId26" display="https://www.digikey.jp/en/products/detail/samtec-inc/TSW-104-07-G-S/1101323"/>
-    <hyperlink ref="G32" r:id="rId26" display="https://www.digikey.jp/en/products/detail/samtec-inc/TSW-104-07-G-S/1101323"/>
-    <hyperlink ref="G36" r:id="rId28" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050"/>
-    <hyperlink ref="G37" r:id="rId29" display="https://www.digikey.jp/en/products/detail/bourns-inc/SRP5030CC-100M/21263836"/>
-    <hyperlink ref="G39" r:id="rId30" display="https://www.digikey.jp/en/products/detail/anbon-semiconductor-int-l-limited/BSS138/16708474"/>
-    <hyperlink ref="G40" r:id="rId31" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
-    <hyperlink ref="G41" r:id="rId32" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
-    <hyperlink ref="G42" r:id="rId33" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A"/>
-    <hyperlink ref="G43" r:id="rId34" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
-    <hyperlink ref="G44" r:id="rId35" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K5L/726689?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSArADIgC6AvkA"/>
-    <hyperlink ref="G45" r:id="rId36" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-074K7L/726785?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACwDS%2BAMiALoC%2BQA"/>
-    <hyperlink ref="G46" r:id="rId37" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B4703V/6213681?s=N4IgTCBcDaIKICUBSAFAQgNjQFgOwAYBmANRAF0BfIA"/>
-    <hyperlink ref="G47" r:id="rId38" display="https://www.digikey.jp/en/products/detail/rohm-semiconductor/PSR500HTQFB0L10/17140191?s=N4IgTCBcDaIAoGUBKBWADGgEgFQIoDEAhNAGQEY0QBdAXyA"/>
-    <hyperlink ref="G48" r:id="rId39" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B1001V/6213377?s=N4IgTCBcDaIKICUBSBaACgIQGwYIwAZ9cA1EAXQF8g"/>
-    <hyperlink ref="G49" r:id="rId40" display="https://www.digikey.jp/en/products/detail/vishay-dale/CRCW06031K00FKEA/1179809"/>
-    <hyperlink ref="G50" r:id="rId41" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0710RL/726699?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJwAyIAugL5A"/>
-    <hyperlink ref="G51" r:id="rId42" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
-    <hyperlink ref="G52" r:id="rId43" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-075K6L/726799?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwDSKAMiALoC%2BQA"/>
-    <hyperlink ref="G53" r:id="rId44" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
-    <hyperlink ref="G54" r:id="rId45" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A"/>
-    <hyperlink ref="G55" r:id="rId46" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT332K/1760733"/>
-    <hyperlink ref="G56" r:id="rId47" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT61K9/1760824"/>
-    <hyperlink ref="G57" r:id="rId48" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT90K9/1760931?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFQE40BpAkAXQF8g"/>
-    <hyperlink ref="G58" r:id="rId49" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT68K0/1760882"/>
-    <hyperlink ref="G59" r:id="rId50" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT31K6/1760794?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFWwEYBpDEAXQF8g"/>
-    <hyperlink ref="G60" r:id="rId51" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT10K0/1761235?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFQEY0BpNEAXQF8g"/>
-    <hyperlink ref="G61" r:id="rId52" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
-    <hyperlink ref="G62" r:id="rId53" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA"/>
-    <hyperlink ref="G63" r:id="rId54" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
-    <hyperlink ref="G64" r:id="rId55" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-072KL/727009?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GANIAyIAugL5A"/>
-    <hyperlink ref="G65" r:id="rId56" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07240RL/727081?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GACxJwAyIAugL5A"/>
-    <hyperlink ref="G66" r:id="rId57" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
-    <hyperlink ref="G67" r:id="rId58" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07100KL/726698?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJIDSAMiALoC%2BQA"/>
-    <hyperlink ref="G68" r:id="rId59" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF2512JT36R0/1716346"/>
-    <hyperlink ref="G69" r:id="rId60" display="https://www.digikey.jp/en/products/detail/koa-speer-electronics-inc/RK73Z2ATTD/10235990"/>
-    <hyperlink ref="G70" r:id="rId61" display="https://www.digikey.jp/en/products/detail/epcos-tdk-electronics/B57355V5104F360/7347813?s=N4IgTCBcDaIEIFYDsBmBCBqCCMAGALAGIoBsuIAugL5A"/>
-    <hyperlink ref="G71" r:id="rId62" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1104F4150/1840605"/>
-    <hyperlink ref="G72" r:id="rId63" display="https://www.digikey.jp/en/products/detail/w%C3%BCrth-elektronik/760390014/3831262?s=N4IgTCBcDaIOwDYAMBmAnEpBGALCAugL5A"/>
-    <hyperlink ref="G73" r:id="rId64" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611"/>
-    <hyperlink ref="G74" r:id="rId65" display="https://www.digikey.jp/en/products/detail/texas-instruments/TPS76350DBVR/382163"/>
-    <hyperlink ref="G75" r:id="rId66" display="https://www.digikey.jp/en/products/detail/texas-instruments/AMC1301DWV/6131500"/>
-    <hyperlink ref="G76" r:id="rId66" display="https://www.digikey.jp/en/products/detail/texas-instruments/AMC1301DWV/6131500"/>
-    <hyperlink ref="G77" r:id="rId67" display="https://www.digikey.jp/en/products/detail/texas-instruments/SN6501DBVR/3431175?s=N4IgTCBcDaIMoDkBsBWADARgCICEBqASiALoC%2BQA"/>
-    <hyperlink ref="G78" r:id="rId68" display="https://www.digikey.jp/en/products/detail/texas-instruments/OPA2197IDR/6175210?s=N4IgTCBcDaIPIAUCCYCMBOA7ASQCICUQBdAXyA"/>
-    <hyperlink ref="G79" r:id="rId69" display="https://www.digikey.jp/en/products/detail/renesas-electronics-america-inc/ISL28022FUZ-T7A/4765786"/>
-    <hyperlink ref="G80" r:id="rId70" display="https://www.digikey.jp/en/products/detail/texas-instruments/TPS54160ADGQ/3451623"/>
-    <hyperlink ref="G81" r:id="rId71" display="https://www.digikey.jp/en/products/detail/espressif-systems/ESP32-DEVKITC-32E/12091810"/>
-    <hyperlink ref="G82" r:id="rId72" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6820IMS-PBF/3838555?s=N4IgTCBcDaIDIBUDCA2AHGADASQLIGUBiABQCEAxAAhAF0BfIA"/>
-    <hyperlink ref="G83" r:id="rId73" display="https://www.digikey.jp/en/products/detail/silicon-labs/CP2104-F03-GM/2486177"/>
-    <hyperlink ref="G84" r:id="rId74" display="https://www.digikey.jp/en/products/detail/texas-instruments/ISO1050DUBR/2094633?s=N4IgTCBcDaIJIGUDyBGADAVjQEQKoCEAlEAXQF8g"/>
-    <hyperlink ref="G85" r:id="rId75" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
-    <hyperlink ref="E4" r:id="rId76" display="https://www.puiaudio.com/media/SpecSheet/AI-1027-TWT-5V-2-R.pdf"/>
-    <hyperlink ref="E5" r:id="rId77" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5545/CL21A106KAYNNNE%20Spec.pdf"/>
-    <hyperlink ref="E6" r:id="rId78" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4AdEkAXQF8g"/>
-    <hyperlink ref="E7" r:id="rId79" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R72A331KA01D/587128"/>
-    <hyperlink ref="E8" r:id="rId80" display="https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C225K4PACTU"/>
-    <hyperlink ref="E9" r:id="rId81" display="https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C222K4RECAUTO"/>
-    <hyperlink ref="E10" r:id="rId82" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM1885C1H221JA16-01.pdf"/>
-    <hyperlink ref="E11" r:id="rId83" display="https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf"/>
-    <hyperlink ref="E12" r:id="rId84" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM188R72A103KA37-01.pdf"/>
-    <hyperlink ref="E13" r:id="rId85" display="https://datasheets.kyocera-avx.com/C0GNP0-KGM.pdf"/>
-    <hyperlink ref="E14" r:id="rId86" display="https://www.digikey.jp/en/products/detail/kemet/C0603C333J4REC7411/8645086"/>
-    <hyperlink ref="E15" r:id="rId87" display="https://industrial.panasonic.com/cdbs/www-data/pdf/AAB8000/AAB8000C175.pdf"/>
-    <hyperlink ref="E16" r:id="rId88" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4564/0603B104K500XD.pdf"/>
-    <hyperlink ref="E17" r:id="rId89" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf"/>
-    <hyperlink ref="E18" r:id="rId90" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5411/0603B101K101SD.pdf"/>
-    <hyperlink ref="E19" r:id="rId91" display="https://optoelectronics.liteon.com/upload/download/DS-22-99-0151/LTST-C190KRKT.pdf"/>
-    <hyperlink ref="E20" r:id="rId92" display="http://www.mccsemi.com/up_pdf/MBR0520~MBR0580(SOD123).pdf"/>
-    <hyperlink ref="E21" r:id="rId93" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5337/SS310.pdf"/>
-    <hyperlink ref="E22" r:id="rId94" display="https://www.infineon.com/dgdl/Infineon-ESD24VS2U-DS-v01_01-en.pdf?fileId=db3a3043340fff53013413a2249d2ff3"/>
-    <hyperlink ref="E23" r:id="rId95" display="https://www.diodes.com/assets/Datasheets/BAV16W_1N4148W.pdf"/>
-    <hyperlink ref="E24" r:id="rId96" display="https://assets.nexperia.com/documents/data-sheet/BZT52H_SER.pdf"/>
-    <hyperlink ref="E25" r:id="rId97" display="https://assets.nexperia.com/documents/data-sheet/PDZ-B_SER.pdf"/>
-    <hyperlink ref="E26" r:id="rId98" display="https://product.tdk.com/en/system/files?file=dam/doc/product/emc/emc/beads/catalog/beads_automotive_power_mpz2012_en.pdf"/>
-    <hyperlink ref="E27" r:id="rId99" display="https://www.murata.com/en-us/products/productdata/8796738650142/ENFA0003.pdf"/>
-    <hyperlink ref="E28" r:id="rId100" display="https://tools.molex.com/pdm_docs/sd/705430001_sd.pdf"/>
-    <hyperlink ref="E29" r:id="rId101" display="https://suddendocs.samtec.com/prints/tsw-xxx-xx-x-x-xx-xxx-footprint.pdf"/>
-    <hyperlink ref="E30" r:id="rId102" display="https://www.te.com/usa-en/product-2013499-1.datasheet.pdf"/>
-    <hyperlink ref="E31" r:id="rId101" display="https://suddendocs.samtec.com/prints/tsw-xxx-xx-x-x-xx-xxx-footprint.pdf"/>
-    <hyperlink ref="E32" r:id="rId101" display="https://suddendocs.samtec.com/prints/tsw-xxx-xx-x-x-xx-xxx-footprint.pdf"/>
-    <hyperlink ref="E36" r:id="rId103" display="https://www.jst-mfg.com/product/pdf/eng/eXH.pdf"/>
-    <hyperlink ref="E37" r:id="rId104" display="https://www.bourns.com/docs/Product-Datasheets/SRP5030CC.pdf"/>
-    <hyperlink ref="E39" r:id="rId105" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/3037/BSS138.pdf"/>
-    <hyperlink ref="E40" r:id="rId106" display="https://www.onsemi.com/pdf/datasheet/nss1c201mz4-d.pdf"/>
-    <hyperlink ref="E41" r:id="rId107" display="https://www.taiwansemi.com/assets/uploads/datasheet/TSM2323_F15.pdf"/>
-    <hyperlink ref="E42" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E43" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E44" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E45" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E46" r:id="rId110" display="https://industrial.panasonic.com/cdbs/www-data/pdf/RDM0000/AOA0000C328.pdf"/>
-    <hyperlink ref="E47" r:id="rId111" display="https://fscdn.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/psr-e.pdf"/>
-    <hyperlink ref="E48" r:id="rId110" display="https://industrial.panasonic.com/cdbs/www-data/pdf/RDM0000/AOA0000C328.pdf"/>
-    <hyperlink ref="E49" r:id="rId112" display="https://www.vishay.com/docs/20035/dcrcwe3.pdf"/>
-    <hyperlink ref="E50" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E51" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E52" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E53" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E54" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E55" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E56" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E57" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E58" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E59" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E60" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E61" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E62" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E63" r:id="rId109" display="https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf"/>
-    <hyperlink ref="E64" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E65" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E66" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E67" r:id="rId108" display="https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf"/>
-    <hyperlink ref="E68" r:id="rId113" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
-    <hyperlink ref="E69" r:id="rId114" display="https://www.koaspeer.com/pdfs/RK73Z.pdf"/>
-    <hyperlink ref="E70" r:id="rId115" display="https://www.tdk-electronics.tdk.com/inf/50/db/ntc/NTC_SMD_Automotive_series_0603.pdf?ref_disty=digikey"/>
-    <hyperlink ref="E71" r:id="rId116" display="https://www.cantherm.com/wp-content/uploads/2017/05/cantherm_mf52_1.pdf"/>
-    <hyperlink ref="E72" r:id="rId117" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2456/760390014%20Dwg.pdf"/>
-    <hyperlink ref="E73" r:id="rId118" display="https://productfinder.pulseelectronics.com/api/open/part-attachments/datasheet/HM2108NL"/>
-    <hyperlink ref="E74" r:id="rId119" display="https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=http%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps763"/>
-    <hyperlink ref="E75" r:id="rId120" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301"/>
-    <hyperlink ref="E76" r:id="rId121" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?ts=1697691105837&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fsitesearch%252Fen-us%252Fdocs%252Funiversalsearch.tsp%253FlangPref%253Den-US%2526searchTerm%253DAMC1301%2526nr%253D468"/>
-    <hyperlink ref="E77" r:id="rId122" display="https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Fsn6501"/>
-    <hyperlink ref="E78" r:id="rId123" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197"/>
-    <hyperlink ref="E79" r:id="rId124" display="https://www.renesas.com/us/en/document/dst/isl28022-datasheet"/>
-    <hyperlink ref="E80" r:id="rId125" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a"/>
-    <hyperlink ref="E81" r:id="rId126" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/754/ESP32-DevKitC_GSG_Ver1.4_2017.pdf"/>
-    <hyperlink ref="E82" r:id="rId127" display="https://www.analog.com/media/en/technical-documentation/data-sheets/LTC6820.pdf"/>
-    <hyperlink ref="E83" r:id="rId128" display="https://www.silabs.com/documents/public/data-sheets/cp2104.pdf"/>
-    <hyperlink ref="E84" r:id="rId129" display="https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Fiso1050"/>
-    <hyperlink ref="E85" r:id="rId130" display="https://www.analog.com/media/en/technical-documentation/data-sheets/LTC6811-1-6811-2.pdf"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G54" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G59" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G60" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G68" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E4" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E5" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E6" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E7" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E8" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E9" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E11" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E13" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E14" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E15" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E16" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E17" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E18" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E19" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E20" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E21" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E22" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E23" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E24" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E25" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E26" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E27" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E28" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E30" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E31" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E32" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E36" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E37" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E41" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E42" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E43" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E44" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E45" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E46" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E47" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E48" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E49" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E52" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E53" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E54" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E55" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E56" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E57" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E59" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E60" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E61" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E62" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E63" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E64" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E65" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E66" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E67" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E68" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E72" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E73" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E76" r:id="rId144" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E77" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E78" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E79" r:id="rId147" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E80" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E81" r:id="rId149" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E82" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E83" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E84" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E85" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E86" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E50" r:id="rId155" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
+    <hyperlink ref="E70" r:id="rId156" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId157"/>
 </worksheet>
 </file>
--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A0DE6-71D7-4A32-AD5C-96356D173542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52406AF6-B56B-4FE7-B5B9-90799248BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="-13860" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC6811_ESP32" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="502">
   <si>
     <t>LTC6811_ESP32_BOM</t>
   </si>
@@ -319,9 +319,6 @@
     <t>0603B105K250XD</t>
   </si>
   <si>
-    <t>C53</t>
-  </si>
-  <si>
     <t>100pF 100V</t>
   </si>
   <si>
@@ -1208,9 +1205,6 @@
   </si>
   <si>
     <t>760390014</t>
-  </si>
-  <si>
-    <t>TR2, TR3</t>
   </si>
   <si>
     <t>HM2108NL</t>
@@ -1495,6 +1489,62 @@
   </si>
   <si>
     <t>Resistor_SMD:R_2010_5025Metric</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENNOID:Pin_1x02-XL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tools.molex.com/pdm_docs/sd/705430001_sd.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 2 position 0.100" (2.54mm)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/molex/0705430001/114915?s=N4IgTCBcDaIOwAYCsAWAzAWgdgjCAugL5A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM2102NL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer_SMD:HM2102NL_PUL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://productfinder.pulseelectronics.com/api/open/part-attachments/datasheet/HM2102NL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150µH Pulse Transformer 1:1 Surface Mount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/pulse-electronics/HM2102NL/7914608</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22,C53</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1606,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1582,7 +1640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1604,12 +1662,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1618,6 +1670,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2108,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2119,7 +2180,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="37.625" style="2" customWidth="1"/>
@@ -2128,28 +2189,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2586,33 +2647,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+      <c r="I18" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -2620,25 +2681,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" t="s">
         <v>110</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2649,25 +2710,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" t="s">
         <v>117</v>
-      </c>
-      <c r="H20" t="s">
-        <v>118</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2678,25 +2739,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2707,25 +2768,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" t="s">
         <v>130</v>
-      </c>
-      <c r="H22" t="s">
-        <v>131</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2736,25 +2797,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" t="s">
         <v>136</v>
-      </c>
-      <c r="H23" t="s">
-        <v>137</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2765,25 +2826,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" t="s">
         <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>144</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2794,25 +2855,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" t="s">
         <v>150</v>
-      </c>
-      <c r="H25" t="s">
-        <v>151</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2823,25 +2884,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
         <v>152</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I26">
         <v>14</v>
@@ -2852,25 +2913,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
         <v>158</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2881,25 +2942,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" t="s">
         <v>169</v>
-      </c>
-      <c r="H28" t="s">
-        <v>170</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2910,25 +2971,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
         <v>171</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" t="s">
         <v>176</v>
-      </c>
-      <c r="H29" t="s">
-        <v>177</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2939,25 +3000,25 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
         <v>178</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" t="s">
         <v>183</v>
-      </c>
-      <c r="H30" t="s">
-        <v>184</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2968,25 +3029,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
-        <v>186</v>
-      </c>
       <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" t="s">
         <v>176</v>
-      </c>
-      <c r="H31" t="s">
-        <v>177</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2997,25 +3058,25 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
         <v>187</v>
       </c>
-      <c r="C32" t="s">
-        <v>188</v>
-      </c>
       <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" t="s">
         <v>176</v>
-      </c>
-      <c r="H32" t="s">
-        <v>177</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3026,16 +3087,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
         <v>189</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3046,16 +3107,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="C34" t="s">
-        <v>194</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3066,19 +3127,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" t="s">
         <v>197</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" t="s">
-        <v>198</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3089,25 +3150,25 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
         <v>199</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -3118,25 +3179,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
         <v>205</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" t="s">
         <v>210</v>
-      </c>
-      <c r="H37" t="s">
-        <v>211</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3147,13 +3208,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
         <v>212</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3164,25 +3225,25 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
         <v>215</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="H39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3193,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
         <v>220</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" t="s">
         <v>225</v>
-      </c>
-      <c r="H40" t="s">
-        <v>226</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3222,25 +3283,25 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="s">
         <v>227</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" t="s">
         <v>231</v>
-      </c>
-      <c r="H41" t="s">
-        <v>232</v>
       </c>
       <c r="I41">
         <v>12</v>
@@ -3251,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" t="s">
         <v>233</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" t="s">
         <v>237</v>
-      </c>
-      <c r="H42" t="s">
-        <v>238</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3280,25 +3341,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" t="s">
         <v>242</v>
-      </c>
-      <c r="H43" t="s">
-        <v>243</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -3309,25 +3370,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
         <v>244</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" t="s">
         <v>247</v>
-      </c>
-      <c r="H44" t="s">
-        <v>248</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3338,25 +3399,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" t="s">
         <v>249</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" t="s">
         <v>252</v>
-      </c>
-      <c r="H45" t="s">
-        <v>253</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -3367,25 +3428,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" t="s">
         <v>259</v>
-      </c>
-      <c r="H46" t="s">
-        <v>260</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -3396,25 +3457,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" t="s">
         <v>261</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" t="s">
         <v>266</v>
-      </c>
-      <c r="H47" t="s">
-        <v>267</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3425,25 +3486,25 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
         <v>268</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" t="s">
         <v>271</v>
-      </c>
-      <c r="H48" t="s">
-        <v>272</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3454,56 +3515,56 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" t="s">
         <v>276</v>
-      </c>
-      <c r="H49" t="s">
-        <v>277</v>
       </c>
       <c r="I49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A50" s="8">
+    <row r="50" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="G50" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="H50" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3512,25 +3573,25 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" t="s">
         <v>278</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" t="s">
         <v>281</v>
-      </c>
-      <c r="H51" t="s">
-        <v>282</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3541,25 +3602,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
         <v>283</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" t="s">
         <v>286</v>
-      </c>
-      <c r="H52" t="s">
-        <v>287</v>
       </c>
       <c r="I52">
         <v>19</v>
@@ -3570,25 +3631,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" t="s">
         <v>288</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" t="s">
         <v>291</v>
-      </c>
-      <c r="H53" t="s">
-        <v>292</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3599,25 +3660,25 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" t="s">
         <v>293</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" t="s">
         <v>296</v>
-      </c>
-      <c r="H54" t="s">
-        <v>297</v>
       </c>
       <c r="I54">
         <v>14</v>
@@ -3628,25 +3689,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" t="s">
         <v>298</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" t="s">
         <v>301</v>
-      </c>
-      <c r="H55" t="s">
-        <v>302</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3657,25 +3718,25 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" t="s">
         <v>303</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" t="s">
         <v>307</v>
-      </c>
-      <c r="H56" t="s">
-        <v>308</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3686,25 +3747,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s">
         <v>309</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" t="s">
         <v>312</v>
-      </c>
-      <c r="H57" t="s">
-        <v>313</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3715,25 +3776,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s">
         <v>314</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" t="s">
         <v>317</v>
-      </c>
-      <c r="H58" t="s">
-        <v>318</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3744,25 +3805,25 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" t="s">
         <v>319</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" t="s">
         <v>322</v>
-      </c>
-      <c r="H59" t="s">
-        <v>323</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3773,25 +3834,25 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" t="s">
         <v>324</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" t="s">
         <v>327</v>
-      </c>
-      <c r="H60" t="s">
-        <v>328</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3802,25 +3863,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s">
         <v>329</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" t="s">
         <v>332</v>
-      </c>
-      <c r="H61" t="s">
-        <v>333</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -3831,25 +3892,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" t="s">
         <v>334</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" t="s">
         <v>337</v>
-      </c>
-      <c r="H62" t="s">
-        <v>338</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -3860,25 +3921,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" t="s">
         <v>342</v>
-      </c>
-      <c r="H63" t="s">
-        <v>343</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -3889,25 +3950,25 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" t="s">
         <v>344</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" t="s">
         <v>347</v>
-      </c>
-      <c r="H64" t="s">
-        <v>348</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -3918,25 +3979,25 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C65" t="s">
         <v>349</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" t="s">
         <v>352</v>
-      </c>
-      <c r="H65" t="s">
-        <v>353</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3947,25 +4008,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
         <v>354</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" t="s">
         <v>357</v>
-      </c>
-      <c r="H66" t="s">
-        <v>358</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -3976,25 +4037,25 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" t="s">
         <v>359</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" t="s">
         <v>362</v>
-      </c>
-      <c r="H67" t="s">
-        <v>363</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -4005,25 +4066,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" t="s">
         <v>364</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" t="s">
         <v>367</v>
-      </c>
-      <c r="H68" t="s">
-        <v>368</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -4034,56 +4095,56 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" t="s">
         <v>369</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" t="s">
         <v>373</v>
-      </c>
-      <c r="H69" t="s">
-        <v>374</v>
       </c>
       <c r="I69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="8">
+    <row r="70" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="F70" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="I70" s="10">
+      <c r="H70" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4092,25 +4153,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" t="s">
         <v>377</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" t="s">
         <v>381</v>
-      </c>
-      <c r="H71" t="s">
-        <v>382</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4121,25 +4182,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C72" t="s">
-        <v>378</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" t="s">
         <v>387</v>
-      </c>
-      <c r="H72" t="s">
-        <v>388</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -4150,25 +4211,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" t="s">
         <v>389</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4178,258 +4239,258 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" t="s">
+        <v>395</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="H74" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C75" t="s">
-        <v>403</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>406</v>
+      <c r="B75" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H75" t="s">
-        <v>408</v>
-      </c>
-      <c r="I75">
+        <v>500</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I75" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C76" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H76" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H77" t="s">
         <v>413</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H77" t="s">
-        <v>415</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H78" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H79" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C80" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H80" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H81" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H82" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4440,25 +4501,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="H83" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4469,25 +4530,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H84" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4498,25 +4559,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C85" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H85" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4527,27 +4588,85 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C86" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H86" t="s">
+        <v>464</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C87" t="s">
+        <v>470</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E87" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H87" t="s">
         <v>475</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H86" t="s">
-        <v>477</v>
-      </c>
-      <c r="I86">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H88" s="10">
+        <v>705430001</v>
+      </c>
+      <c r="I88" s="8">
         <v>1</v>
       </c>
     </row>
@@ -4622,18 +4741,18 @@
     <hyperlink ref="G72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="G73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="G74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="E4" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="E5" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="E6" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
@@ -4699,22 +4818,26 @@
     <hyperlink ref="E72" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="E73" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
     <hyperlink ref="E74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E76" r:id="rId144" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E77" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E78" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E79" r:id="rId147" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E80" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E81" r:id="rId149" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E82" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E83" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E84" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E85" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E86" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E76" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E77" r:id="rId144" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E78" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E79" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E80" r:id="rId147" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E81" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E82" r:id="rId149" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E83" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E84" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E85" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E86" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E87" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="E50" r:id="rId155" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
     <hyperlink ref="E70" r:id="rId156" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
+    <hyperlink ref="E88" r:id="rId157" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
+    <hyperlink ref="G88" r:id="rId158" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
+    <hyperlink ref="E75" r:id="rId159" xr:uid="{8582B17A-B48B-4B14-9F45-AB67F3E9E204}"/>
+    <hyperlink ref="G75" r:id="rId160" xr:uid="{CC9D6EE0-BB07-4449-9F84-FBC5B26F17CE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId157"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId161"/>
 </worksheet>
 </file>
--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52406AF6-B56B-4FE7-B5B9-90799248BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E69A77-6D95-4BDB-A140-3D3DAC9AEB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-13860" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC6811_ESP32" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="503">
   <si>
     <t>LTC6811_ESP32_BOM</t>
   </si>
@@ -289,49 +289,13 @@
     <t>100nF 50V</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4564/0603B104K500XD.pdf</t>
-  </si>
-  <si>
-    <t>0.1 uF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B104K500XD/15761336</t>
-  </si>
-  <si>
-    <t>0603B104K500XD</t>
-  </si>
-  <si>
     <t>C36, C42, C44, C46, C47, C50-C52</t>
   </si>
   <si>
     <t>1uF 25V</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf</t>
-  </si>
-  <si>
-    <t>1 uF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931</t>
-  </si>
-  <si>
-    <t>0603B105K250XD</t>
-  </si>
-  <si>
     <t>100pF 100V</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5411/0603B101K101SD.pdf</t>
-  </si>
-  <si>
-    <t>100 pF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B101K101SD/18668484</t>
-  </si>
-  <si>
-    <t>0603B101K101SD</t>
   </si>
   <si>
     <t>D1-D3, D12</t>
@@ -1524,35 +1488,82 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HM2102NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Transformer_SMD:HM2102NL_PUL</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://productfinder.pulseelectronics.com/api/open/part-attachments/datasheet/HM2102NL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>150µH Pulse Transformer 1:1 Surface Mount</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/pulse-electronics/HM2102NL/7914608</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C22,C53</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM2102NLT</t>
+  </si>
+  <si>
+    <t>HM2102NLT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://productfinder.pulseelectronics.com/api/open/part-attachments/datasheet/HM2102NLT</t>
+  </si>
+  <si>
+    <t>100 pF ±5% 100V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM1885C2A101JA16-01.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C2A101JA16D/1641645</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCM1885C2A101JA16D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/pulse-electronics/HM2102NLT/8021473</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603B105K250XD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 µF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KB8NNNC/3886658</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL10B104KB8NNNC_Spec.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,13 +1625,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1640,7 +1680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,6 +1718,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2171,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2593,28 +2675,28 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16">
+      <c r="E16" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" s="23">
         <v>3</v>
       </c>
     </row>
@@ -2622,57 +2704,57 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17">
+      <c r="E17" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I17" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="E18" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="I18" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2681,25 +2763,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2710,25 +2792,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2739,25 +2821,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2768,25 +2850,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2797,25 +2879,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2826,25 +2908,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2855,25 +2937,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2884,25 +2966,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I26">
         <v>14</v>
@@ -2913,25 +2995,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2942,25 +3024,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2971,25 +3053,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3000,25 +3082,25 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3029,25 +3111,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3058,25 +3140,25 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3087,16 +3169,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3107,16 +3189,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3127,19 +3209,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3150,25 +3232,25 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -3179,25 +3261,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3208,13 +3290,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3225,25 +3307,25 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3254,25 +3336,25 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3283,25 +3365,25 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I41">
         <v>12</v>
@@ -3312,25 +3394,25 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H42" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3341,25 +3423,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -3370,25 +3452,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3399,25 +3481,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -3428,25 +3510,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -3457,25 +3539,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3486,25 +3568,25 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3515,25 +3597,25 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -3544,25 +3626,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="I50" s="8">
         <v>1</v>
@@ -3573,25 +3655,25 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H51" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3602,25 +3684,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H52" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I52">
         <v>19</v>
@@ -3631,25 +3713,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H53" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3660,25 +3742,25 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H54" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="I54">
         <v>14</v>
@@ -3689,25 +3771,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H55" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3718,25 +3800,25 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H56" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3747,25 +3829,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H57" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3776,25 +3858,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3805,25 +3887,25 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H59" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3834,25 +3916,25 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H60" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3863,25 +3945,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H61" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -3892,25 +3974,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -3921,25 +4003,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -3950,25 +4032,25 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -3979,25 +4061,25 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H65" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4008,25 +4090,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H66" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -4037,25 +4119,25 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C67" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H67" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -4066,25 +4148,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H68" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -4095,25 +4177,25 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="H69" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I69">
         <v>12</v>
@@ -4124,25 +4206,25 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="I70" s="8">
         <v>1</v>
@@ -4153,25 +4235,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H71" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4182,25 +4264,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C72" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -4211,25 +4293,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C73" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4240,56 +4322,56 @@
         <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H74" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+    <row r="75" spans="1:9" s="13" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="14">
         <v>72</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="I75" s="8">
+      <c r="B75" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I75" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4298,25 +4380,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C76" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H76" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4327,25 +4409,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H77" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4356,25 +4438,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4385,25 +4467,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H79" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4414,25 +4496,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H80" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4443,25 +4525,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H81" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -4472,25 +4554,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C82" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H82" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4501,25 +4583,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H83" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4530,25 +4612,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C84" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H84" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4559,25 +4641,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H85" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4588,25 +4670,25 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C86" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H86" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4617,25 +4699,25 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C87" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H87" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4646,22 +4728,22 @@
         <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H88" s="10">
         <v>705430001</v>
@@ -4688,156 +4770,153 @@
     <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G37" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G54" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G59" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G60" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G61" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G62" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G64" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G65" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G66" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G67" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G68" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G69" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E4" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E5" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E6" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E7" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E8" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E9" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E10" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E11" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E13" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E14" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E15" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E16" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E17" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E18" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E19" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E20" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E21" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E22" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E23" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E24" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E25" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E26" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E27" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E28" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E30" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E31" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E32" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E36" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E37" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E39" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E40" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E41" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E42" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E43" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E44" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E45" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E46" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E47" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E48" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E49" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E52" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E53" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E54" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E55" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E56" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E57" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E59" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E60" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E61" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E62" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E63" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E64" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E65" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E66" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E67" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E68" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E72" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E73" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E74" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E76" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E77" r:id="rId144" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E78" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E79" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E80" r:id="rId147" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E81" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E82" r:id="rId149" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E83" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E84" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E85" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E86" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E87" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E50" r:id="rId155" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
-    <hyperlink ref="E70" r:id="rId156" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
-    <hyperlink ref="E88" r:id="rId157" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
-    <hyperlink ref="G88" r:id="rId158" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
-    <hyperlink ref="E75" r:id="rId159" xr:uid="{8582B17A-B48B-4B14-9F45-AB67F3E9E204}"/>
-    <hyperlink ref="G75" r:id="rId160" xr:uid="{CC9D6EE0-BB07-4449-9F84-FBC5B26F17CE}"/>
+    <hyperlink ref="G19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G67" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G72" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G76" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G77" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G78" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G79" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G81" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G82" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E4" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E5" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E6" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E7" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E8" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E9" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E11" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E14" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E15" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E19" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E20" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E21" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E22" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E23" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E24" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E25" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E26" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E28" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E29" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E30" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E31" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E32" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E36" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E37" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E39" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E40" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E41" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E42" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E43" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E44" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E45" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E46" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E47" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E48" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E49" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E51" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E52" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E56" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E57" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E58" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E59" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E60" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E61" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E62" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E63" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E67" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E68" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E69" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E71" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E73" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E76" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E77" r:id="rId138" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E78" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E80" r:id="rId141" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E81" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E82" r:id="rId143" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E83" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E84" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E85" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E86" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E87" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E50" r:id="rId149" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
+    <hyperlink ref="E70" r:id="rId150" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
+    <hyperlink ref="E88" r:id="rId151" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
+    <hyperlink ref="G88" r:id="rId152" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
+    <hyperlink ref="G18" r:id="rId153" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
+    <hyperlink ref="G75" r:id="rId154" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
+    <hyperlink ref="E17" r:id="rId155" xr:uid="{00DFB778-4037-4FEC-923B-E1EC75B8D10C}"/>
+    <hyperlink ref="G17" r:id="rId156" xr:uid="{570B30A1-3ABE-4984-A8B3-1E9A8380BEF8}"/>
+    <hyperlink ref="G16" r:id="rId157" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId161"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId158"/>
 </worksheet>
 </file>
--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E69A77-6D95-4BDB-A140-3D3DAC9AEB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B990032-D450-4EEB-95BD-D99B227B4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LTC6811_ESP32" sheetId="1" r:id="rId1"/>
@@ -1528,22 +1528,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0603B105K250XD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0.1 µF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1557,6 +1541,21 @@
   </si>
   <si>
     <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL10B104KB8NNNC_Spec.pdf</t>
+  </si>
+  <si>
+    <t>CL10A105KA8NNNC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10A105KA8NNNC/3886760</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL10A105KA8NNNC_Spec.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1643,24 +1642,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1680,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1720,47 +1707,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2253,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2671,90 +2655,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F17" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I16" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="I17" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="I17" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="26">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="20">
         <v>2</v>
       </c>
     </row>
@@ -4346,32 +4330,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="13" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="14">
+    <row r="75" spans="1:9" s="24" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="22">
         <v>72</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4912,9 +4896,9 @@
     <hyperlink ref="G88" r:id="rId152" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
     <hyperlink ref="G18" r:id="rId153" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
     <hyperlink ref="G75" r:id="rId154" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
-    <hyperlink ref="E17" r:id="rId155" xr:uid="{00DFB778-4037-4FEC-923B-E1EC75B8D10C}"/>
-    <hyperlink ref="G17" r:id="rId156" xr:uid="{570B30A1-3ABE-4984-A8B3-1E9A8380BEF8}"/>
-    <hyperlink ref="G16" r:id="rId157" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
+    <hyperlink ref="G16" r:id="rId155" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
+    <hyperlink ref="G17" r:id="rId156" xr:uid="{AAE8FE46-07D4-47C7-AC8D-3D1B61BC31AC}"/>
+    <hyperlink ref="E17" r:id="rId157" xr:uid="{A039C161-577A-4EC6-BE9F-72F6946C412C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId158"/>

--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B990032-D450-4EEB-95BD-D99B227B4F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589277E8-E79E-43C2-A46F-8BDFE85F17D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,18 +1138,6 @@
     <t>Resistor_THT:R_Axial_DIN0204_L3.6mm_D1.6mm_P1.90mm_Vertical</t>
   </si>
   <si>
-    <t>https://www.cantherm.com/wp-content/uploads/2017/05/cantherm_mf52_1.pdf</t>
-  </si>
-  <si>
-    <t>THERM NTC 100KOHM 4150K BEAD</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/cantherm/MF52C1104F4150/1840605</t>
-  </si>
-  <si>
-    <t>MF52C1104F4150</t>
-  </si>
-  <si>
     <t>TR1</t>
   </si>
   <si>
@@ -1556,6 +1544,19 @@
   <si>
     <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL10A105KA8NNNC_Spec.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tdk-electronics.tdk.com/inf/50/db/ntc/NTC_Mini_sensors_S861.pdf</t>
+  </si>
+  <si>
+    <t>NTC Thermistor 100k Bead</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/epcos-tdk-electronics/B57861S0104F040V24/739890</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B57861S0104F040V24</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,47 +1705,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2237,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,28 +2238,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2655,90 +2638,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
+    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F17" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="I17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="I17" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="E18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="G18" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="I18" s="8">
         <v>2</v>
       </c>
     </row>
@@ -3581,7 +3564,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C49" t="s">
         <v>260</v>
@@ -3610,25 +3593,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>260</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I50" s="8">
         <v>1</v>
@@ -4196,19 +4179,19 @@
         <v>363</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>474</v>
-      </c>
       <c r="H70" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I70" s="8">
         <v>1</v>
@@ -4257,16 +4240,16 @@
         <v>371</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="H72" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -4277,25 +4260,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C73" t="s">
+      <c r="G73" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="H73" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4306,56 +4289,56 @@
         <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C74" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="H74" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="24" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
+    <row r="75" spans="1:9" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="15">
         <v>72</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="H75" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="I75" s="24">
+      <c r="I75" s="17">
         <v>1</v>
       </c>
     </row>
@@ -4364,25 +4347,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C76" t="s">
+      <c r="G76" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="H76" t="s">
         <v>390</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H76" t="s">
-        <v>394</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4393,25 +4376,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C77" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="H77" t="s">
         <v>397</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H77" t="s">
-        <v>401</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4422,25 +4405,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C78" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" t="s">
         <v>397</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H78" t="s">
-        <v>401</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4451,25 +4434,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C79" t="s">
+      <c r="H79" t="s">
         <v>406</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H79" t="s">
-        <v>410</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4480,25 +4463,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" t="s">
+        <v>408</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C80" t="s">
+      <c r="G80" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="H80" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4509,25 +4492,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C81" t="s">
+        <v>414</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="H81" t="s">
         <v>419</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H81" t="s">
-        <v>423</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -4538,25 +4521,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C82" t="s">
+      <c r="G82" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="H82" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4567,25 +4550,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="H83" t="s">
         <v>432</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H83" t="s">
-        <v>436</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4596,25 +4579,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C84" t="s">
+        <v>434</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C84" t="s">
+      <c r="G84" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="H84" t="s">
         <v>439</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H84" t="s">
-        <v>443</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4625,25 +4608,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C85" t="s">
+        <v>441</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C85" t="s">
+      <c r="G85" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="H85" t="s">
         <v>446</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H85" t="s">
-        <v>450</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4654,25 +4637,25 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C86" t="s">
+      <c r="G86" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="H86" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4683,25 +4666,25 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C87" t="s">
+      <c r="G87" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="H87" t="s">
         <v>459</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="H87" t="s">
-        <v>463</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4712,22 +4695,22 @@
         <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="G88" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="H88" s="10">
         <v>705430001</v>
@@ -4801,106 +4784,105 @@
     <hyperlink ref="G68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="G69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="G71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G72" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G76" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G77" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G78" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G79" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G81" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G82" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G83" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G84" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E4" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E5" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E6" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E7" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E8" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E9" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E11" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E14" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E15" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E19" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E20" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E21" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E22" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E23" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E24" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E25" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E26" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E28" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E29" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E30" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E31" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E32" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E36" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E37" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E39" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E40" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E41" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E42" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E43" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E44" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E45" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E46" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E47" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E48" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E49" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E51" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E52" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E56" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E57" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E58" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E59" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E60" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E61" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E62" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E63" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E67" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E68" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E69" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E71" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E72" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E73" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E76" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E77" r:id="rId138" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E78" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E80" r:id="rId141" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E81" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E82" r:id="rId143" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E83" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E84" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E85" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E86" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E87" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E50" r:id="rId149" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
-    <hyperlink ref="E70" r:id="rId150" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
-    <hyperlink ref="E88" r:id="rId151" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
-    <hyperlink ref="G88" r:id="rId152" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
-    <hyperlink ref="G18" r:id="rId153" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
-    <hyperlink ref="G75" r:id="rId154" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
-    <hyperlink ref="G16" r:id="rId155" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
-    <hyperlink ref="G17" r:id="rId156" xr:uid="{AAE8FE46-07D4-47C7-AC8D-3D1B61BC31AC}"/>
-    <hyperlink ref="E17" r:id="rId157" xr:uid="{A039C161-577A-4EC6-BE9F-72F6946C412C}"/>
+    <hyperlink ref="G73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G82" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G83" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G84" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G85" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G86" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E7" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E8" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E11" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E13" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E14" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E15" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E19" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E20" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E21" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E22" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E23" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E25" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E27" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E28" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E29" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E30" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E31" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E32" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E36" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E37" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E39" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E40" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E41" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E42" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E43" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E44" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E45" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E46" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E47" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E48" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E49" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E51" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E52" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E55" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E56" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E57" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E58" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E59" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E60" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E61" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E63" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E66" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E67" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E68" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E69" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E71" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E73" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E74" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E76" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E77" r:id="rId136" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E78" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E79" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E80" r:id="rId139" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E81" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E82" r:id="rId141" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E83" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E84" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E85" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E86" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E87" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E50" r:id="rId147" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
+    <hyperlink ref="E70" r:id="rId148" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
+    <hyperlink ref="E88" r:id="rId149" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
+    <hyperlink ref="G88" r:id="rId150" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
+    <hyperlink ref="G18" r:id="rId151" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
+    <hyperlink ref="G75" r:id="rId152" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
+    <hyperlink ref="G16" r:id="rId153" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
+    <hyperlink ref="G17" r:id="rId154" xr:uid="{AAE8FE46-07D4-47C7-AC8D-3D1B61BC31AC}"/>
+    <hyperlink ref="E17" r:id="rId155" xr:uid="{A039C161-577A-4EC6-BE9F-72F6946C412C}"/>
+    <hyperlink ref="G72" r:id="rId156" xr:uid="{916C54D7-3AD4-4A88-8787-36AEA168FEA2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId158"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId157"/>
 </worksheet>
 </file>
--- a/LTC6811_ESP32_BOM.xlsx
+++ b/LTC6811_ESP32_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\BMS\LTC6811_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589277E8-E79E-43C2-A46F-8BDFE85F17D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D8F74-5023-4F60-8957-66C91E76136F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="502">
   <si>
     <t>LTC6811_ESP32_BOM</t>
   </si>
@@ -127,12 +127,6 @@
     <t>330 pF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R72A331KA01-01.pdf</t>
-  </si>
-  <si>
-    <t>GRM188R72A331KA01D</t>
-  </si>
-  <si>
     <t>C11, C12, C38, C39, C41</t>
   </si>
   <si>
@@ -175,18 +169,6 @@
     <t>220pF 50V</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM1885C1H221JA16-01.pdf</t>
-  </si>
-  <si>
-    <t>220 pF ±5% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C1H221JA16D/1765211</t>
-  </si>
-  <si>
-    <t>GCM1885C1H221JA16D</t>
-  </si>
-  <si>
     <t>C24, C25</t>
   </si>
   <si>
@@ -250,18 +232,6 @@
     <t>3nF 16V</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/kemet/C0603C333J4REC7411/8645086</t>
-  </si>
-  <si>
-    <t>0.033 uF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C333J4REC7411</t>
-  </si>
-  <si>
-    <t>C0603C333J4REC7411</t>
-  </si>
-  <si>
     <t>C31</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>41V Clamp 5A (8/20us) Ipp Tvs Diode Surface Mount PG-SOT23</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/infineon-technologies/ESD24VS2UE6327HTSA1/1785650</t>
-  </si>
-  <si>
     <t>ESD24VS2UE6327HTSA1</t>
   </si>
   <si>
@@ -391,9 +358,6 @@
     <t>Diode 100 V 300mA Surface Mount SOD-123</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371</t>
-  </si>
-  <si>
     <t>1N4148W-7-F</t>
   </si>
   <si>
@@ -640,9 +604,6 @@
     <t>N-Channel 50 V 220mA (Ta) 350mW (Ta) Surface Mount SOT-23</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/anbon-semiconductor-int-l-limited/BSS138/16708474</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -667,21 +628,6 @@
     <t>Q3-Q14</t>
   </si>
   <si>
-    <t>TSM2323</t>
-  </si>
-  <si>
-    <t>https://www.taiwansemi.com/assets/uploads/datasheet/TSM2323_F15.pdf</t>
-  </si>
-  <si>
-    <t>P-Channel 20 V 4.7A (Ta) 1.25W (Ta) Surface Mount SOT-23</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSM2323CX RFG </t>
-  </si>
-  <si>
     <t>R1, R2, R10</t>
   </si>
   <si>
@@ -694,9 +640,6 @@
     <t>470 Ohms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A</t>
-  </si>
-  <si>
     <t>RC0603JR-07470RL</t>
   </si>
   <si>
@@ -709,9 +652,6 @@
     <t>0 Ohms Jumper Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA</t>
-  </si>
-  <si>
     <t>RC0603JR-070RL</t>
   </si>
   <si>
@@ -811,9 +751,6 @@
     <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/vishay-dale/CRCW06031K00FKEA/1179809</t>
-  </si>
-  <si>
     <t>CRCW06031K00FKEA</t>
   </si>
   <si>
@@ -886,9 +823,6 @@
     <t>33 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A</t>
-  </si>
-  <si>
     <t>RC0603FR-0733KL</t>
   </si>
   <si>
@@ -964,9 +898,6 @@
     <t>31.6 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT31K6/1760794?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFWwEYBpDEAXQF8g</t>
-  </si>
-  <si>
     <t>RMCF0603FT31K6</t>
   </si>
   <si>
@@ -994,9 +925,6 @@
     <t>806 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A</t>
-  </si>
-  <si>
     <t>RC0603FR-07806RL</t>
   </si>
   <si>
@@ -1009,9 +937,6 @@
     <t>51 Ohms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA</t>
-  </si>
-  <si>
     <t>RC0603JR-0751RL</t>
   </si>
   <si>
@@ -1171,9 +1096,6 @@
     <t>135uH Pulse Transformer Surface Mount</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1204,9 +1126,6 @@
     <t>Package_SO:SSO-8_6.8x5.9mm_P1.27mm_Clearance8mm</t>
   </si>
   <si>
-    <t>https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301</t>
-  </si>
-  <si>
     <t>Isolation Amplifier 1 Circuit 8-SOIC</t>
   </si>
   <si>
@@ -1222,9 +1141,6 @@
     <t>AMC1301</t>
   </si>
   <si>
-    <t>https://www.ti.com/lit/ds/symlink/amc1301.pdf?ts=1697691105837&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fsitesearch%252Fen-us%252Fdocs%252Funiversalsearch.tsp%253FlangPref%253Den-US%2526searchTerm%253DAMC1301%2526nr%253D468</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -1351,16 +1267,7 @@
     <t>Package_DFN_QFN:HVQFN-24-1EP_4x4mm_P0.5mm_EP2.6x2.6mm</t>
   </si>
   <si>
-    <t>https://www.silabs.com/documents/public/data-sheets/cp2104.pdf</t>
-  </si>
-  <si>
     <t>USB Bridge, USB to UART USB 2.0 UART Interface 24-QFN (4x4)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/silicon-labs/CP2104-F03-GM/2486177</t>
-  </si>
-  <si>
-    <t>CP2104-F03-GM</t>
   </si>
   <si>
     <t>U11</t>
@@ -1418,9 +1325,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC2010JK-071KL/5921660</t>
-  </si>
-  <si>
     <t>RC2010JK-071KL</t>
   </si>
   <si>
@@ -1437,9 +1341,6 @@
     <t>0 Ohms Jumper Chip Resistor 2010 (5025 Metric) Thick Film</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/bourns-inc/CRM2010-J-000ELF/16356436?s=N4IgTCBcDaIAwCUAEY4EY4gLoF8g</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_2010_5025Metric</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1557,6 +1458,121 @@
   </si>
   <si>
     <t>B57861S0104F040V24</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R0BB331</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-NP0X7R_MV_100-to-630V_25.pdf</t>
+  </si>
+  <si>
+    <t>C0603C221F5GAC7867</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/kemet/C0603C221F5GAC7867/2200204</t>
+  </si>
+  <si>
+    <t>220 pF ±1% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C221F5GACTU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 pF ±10% 16V Ceramic Capacitor X8R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/kemet/C0603C302K4HACAUTO/7957393</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C302K4HACAUTO</t>
+  </si>
+  <si>
+    <t>C0603C302K4HACAUTO</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/infineon-technologies/ESD24VS2UE6327HTSA1/1785650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/anbon-semiconductor-int-l-limited/BSS138/16708474</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-Channel 20 V 4.2A (Ta) 1.4W (Ta) Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/diodes-incorporated/DMG2305UX-13/4251560</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/DMG2305UX.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG2305UX-13</t>
+  </si>
+  <si>
+    <t>DMG2305UX-13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/vishay-dale/CRCW06031K00FKEA/1179809</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC2010JK-071KL/5921660</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT31K6/1760794?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFWwEYBpDEAXQF8g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/bourns-inc/CRM2010-J-000ELF/16356436?s=N4IgTCBcDaIAwCUAEY4EY4gLoF8g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Famc1301</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP2104-F03-GMR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/silicon-labs/CP2104-F03-GMR/4069045</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.silabs.com/documents/public/data-sheets/cp2104.pdf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1643,12 +1659,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1668,7 +1690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,6 +1750,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2220,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2377,32 +2417,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="I7" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2411,25 +2451,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -2440,56 +2480,56 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10">
+        <v>475</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2498,25 +2538,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2527,25 +2567,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -2556,56 +2596,56 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14">
+      <c r="E14" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2614,25 +2654,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2643,25 +2683,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -2672,25 +2712,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -2701,25 +2741,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="I18" s="8">
         <v>2</v>
@@ -2730,25 +2770,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2759,25 +2799,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2788,25 +2828,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2817,25 +2857,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>117</v>
+        <v>480</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2846,25 +2886,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>123</v>
+        <v>481</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2875,25 +2915,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2904,25 +2944,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -2933,25 +2973,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I26">
         <v>14</v>
@@ -2962,25 +3002,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2991,25 +3031,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3020,25 +3060,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3049,25 +3089,25 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3078,25 +3118,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3107,25 +3147,25 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3136,16 +3176,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3156,16 +3196,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3176,19 +3216,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3199,25 +3239,25 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H36" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -3228,25 +3268,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3257,13 +3297,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3274,25 +3314,25 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>206</v>
+        <v>482</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3303,56 +3343,56 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="21">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41">
+      <c r="B41" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="I41" s="23">
         <v>12</v>
       </c>
     </row>
@@ -3361,25 +3401,25 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>224</v>
+        <v>488</v>
       </c>
       <c r="H42" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -3390,25 +3430,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>229</v>
+        <v>489</v>
       </c>
       <c r="H43" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="I43">
         <v>4</v>
@@ -3419,25 +3459,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3448,25 +3488,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -3477,25 +3517,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I46">
         <v>4</v>
@@ -3506,25 +3546,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3535,25 +3575,25 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3564,25 +3604,25 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>263</v>
+        <v>490</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -3593,25 +3633,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>464</v>
+        <v>432</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="I50" s="8">
         <v>1</v>
@@ -3622,25 +3662,25 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3651,25 +3691,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H52" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="I52">
         <v>19</v>
@@ -3680,25 +3720,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3709,25 +3749,25 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H54" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="I54">
         <v>14</v>
@@ -3738,25 +3778,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3767,25 +3807,25 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3796,25 +3836,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3825,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3854,25 +3894,25 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="H59" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3883,25 +3923,25 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H60" t="s">
         <v>292</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H60" t="s">
-        <v>315</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3912,25 +3952,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="I61">
         <v>4</v>
@@ -3941,25 +3981,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>324</v>
+        <v>494</v>
       </c>
       <c r="H62" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -3970,25 +4010,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>329</v>
+        <v>495</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -3999,25 +4039,25 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -4028,25 +4068,25 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="H65" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4057,25 +4097,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -4086,25 +4126,25 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -4115,25 +4155,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="H68" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -4144,25 +4184,25 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="H69" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="I69">
         <v>12</v>
@@ -4173,25 +4213,25 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>470</v>
+        <v>437</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="I70" s="8">
         <v>1</v>
@@ -4202,25 +4242,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="H71" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4231,25 +4271,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="H72" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -4260,25 +4300,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4289,25 +4329,25 @@
         <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>383</v>
+        <v>497</v>
       </c>
       <c r="H74" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -4318,25 +4358,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="I75" s="17">
         <v>1</v>
@@ -4347,83 +4387,83 @@
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="H76" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="C77" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="H77" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="C78" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="H78" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4434,25 +4474,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H79" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4463,25 +4503,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="H80" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4492,25 +4532,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="H81" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -4521,25 +4561,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="H82" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4550,25 +4590,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="H83" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4579,25 +4619,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="H84" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4608,25 +4648,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="H85" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4637,25 +4677,25 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H86" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4666,25 +4706,25 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="C87" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="H87" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4695,22 +4735,22 @@
         <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="H88" s="10">
         <v>705430001</v>
@@ -4728,161 +4768,158 @@
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G67" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G82" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G83" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G84" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G85" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G86" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E4" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E5" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E6" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E7" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E8" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E9" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E10" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E11" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E13" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E14" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E15" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E19" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E20" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E21" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E22" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E23" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E25" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E27" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E28" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E29" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E30" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E31" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E32" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E36" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E37" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E39" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E40" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E41" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E42" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E43" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E44" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E45" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E46" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E47" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E48" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E49" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E51" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E52" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E55" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E56" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E57" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E58" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E59" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E60" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E61" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E63" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E66" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E67" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E68" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E69" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E71" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E73" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E74" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E76" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E77" r:id="rId136" display="https://www.ti.com/lit/ds/symlink/amc1301.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697614208280&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Famc1301" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E78" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E79" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E80" r:id="rId139" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E81" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E82" r:id="rId141" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E83" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E84" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E85" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E86" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E87" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E50" r:id="rId147" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
-    <hyperlink ref="E70" r:id="rId148" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
-    <hyperlink ref="E88" r:id="rId149" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
-    <hyperlink ref="G88" r:id="rId150" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
-    <hyperlink ref="G18" r:id="rId151" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
-    <hyperlink ref="G75" r:id="rId152" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
-    <hyperlink ref="G16" r:id="rId153" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
-    <hyperlink ref="G17" r:id="rId154" xr:uid="{AAE8FE46-07D4-47C7-AC8D-3D1B61BC31AC}"/>
-    <hyperlink ref="E17" r:id="rId155" xr:uid="{A039C161-577A-4EC6-BE9F-72F6946C412C}"/>
-    <hyperlink ref="G72" r:id="rId156" xr:uid="{916C54D7-3AD4-4A88-8787-36AEA168FEA2}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G40" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G46" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G47" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G48" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G52" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G54" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G58" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G67" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G77" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G78" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G79" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G80" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G81" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G86" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G87" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E4" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E6" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E8" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E9" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E11" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E12" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E13" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E15" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E19" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E20" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E21" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E22" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E23" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E24" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E25" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E26" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E27" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E28" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E29" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E30" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E31" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E32" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E36" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E37" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E39" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E40" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E42" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E43" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E44" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E45" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E46" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E47" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E48" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E49" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E51" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E52" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E53" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E54" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E57" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E58" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E59" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E60" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E61" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E62" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E63" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E64" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E65" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E66" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E67" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E68" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E69" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E71" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E73" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E74" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E79" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E80" r:id="rId127" display="https://www.ti.com/lit/ds/symlink/opa2197.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1698207032697&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Fopa2197" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E81" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E82" r:id="rId129" display="https://www.ti.com/lit/ds/symlink/tps54160a.pdf?HQS=dis-dk-null-digikeymode-dsf-pf-null-wwe&amp;ts=1697682462443&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fgeneral%252Fdocs%252Fsuppproductinfo.tsp%253FdistId%253D10%2526gotoUrl%253Dhttps%253A%252F%252Fwww.ti.com%252Flit%252Fgpn%252Ftps54160a" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E83" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E84" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E86" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E87" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E50" r:id="rId134" xr:uid="{3B5A37A6-71DE-45B9-BAAD-06FE836F80EA}"/>
+    <hyperlink ref="E70" r:id="rId135" xr:uid="{78A901DC-65A5-4C95-93CB-C934E3255132}"/>
+    <hyperlink ref="E88" r:id="rId136" xr:uid="{11324D34-126C-4518-B3FD-E62B9B8D6886}"/>
+    <hyperlink ref="G88" r:id="rId137" xr:uid="{A7C62A46-C021-479B-BA10-1A9259C7CE70}"/>
+    <hyperlink ref="G18" r:id="rId138" xr:uid="{1BD06935-1FC1-4BB9-B495-A39E25F72230}"/>
+    <hyperlink ref="G75" r:id="rId139" xr:uid="{9C191D6B-C100-4178-B2E7-02ACABBE1ECC}"/>
+    <hyperlink ref="G16" r:id="rId140" xr:uid="{994020A4-69E4-4CCC-B4EB-168EFD1CC578}"/>
+    <hyperlink ref="G17" r:id="rId141" xr:uid="{AAE8FE46-07D4-47C7-AC8D-3D1B61BC31AC}"/>
+    <hyperlink ref="E17" r:id="rId142" xr:uid="{A039C161-577A-4EC6-BE9F-72F6946C412C}"/>
+    <hyperlink ref="G72" r:id="rId143" xr:uid="{916C54D7-3AD4-4A88-8787-36AEA168FEA2}"/>
+    <hyperlink ref="G7" r:id="rId144" xr:uid="{820540E9-7BDD-41D3-947E-089C0A9CA49E}"/>
+    <hyperlink ref="E10" r:id="rId145" xr:uid="{64D1739D-519D-411E-9B01-32AE0B6D3173}"/>
+    <hyperlink ref="E41" r:id="rId146" xr:uid="{302503AF-2C3F-452C-A388-8CA6948C8464}"/>
+    <hyperlink ref="G50" r:id="rId147" xr:uid="{F807C3FB-5BEC-4909-A722-EB72E2E99C59}"/>
+    <hyperlink ref="G70" r:id="rId148" xr:uid="{9AE2782C-9299-4E06-BA31-FF3547081864}"/>
+    <hyperlink ref="E76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E77" r:id="rId150" xr:uid="{F2F1DE90-5F53-4D1F-8612-4B99A420C31C}"/>
+    <hyperlink ref="E78" r:id="rId151" xr:uid="{2667FC30-E11F-4B2A-A847-72C812FE72CB}"/>
+    <hyperlink ref="G85" r:id="rId152" xr:uid="{676A09A9-6F47-4B6A-BB0F-1601F302081C}"/>
+    <hyperlink ref="E85" r:id="rId153" xr:uid="{3D9C617A-32DE-4499-9D28-33D81B011C0D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId157"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId154"/>
 </worksheet>
 </file>